--- a/Создание ШтрихКОДА/документы.xlsx
+++ b/Создание ШтрихКОДА/документы.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\StrihKOD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\StrihKOD\Создание ШтрихКОДА\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A68FB8B-B54D-4A7D-942E-91A5CC432E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21F9CE2C-D6A0-4F88-8D53-EA35FB7D1823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,12 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
-    <t>Document Name</t>
-  </si>
-  <si>
-    <t>Document ID</t>
-  </si>
-  <si>
     <t>Заявление</t>
   </si>
   <si>
@@ -328,6 +322,12 @@
   </si>
   <si>
     <t>Акт о вводе в эксплуатацию</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Название документа</t>
   </si>
 </sst>
 </file>
@@ -369,9 +369,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -654,813 +659,813 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2">
         <v>17</v>
       </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
         <v>18</v>
       </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2">
         <v>19</v>
       </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2">
         <v>20</v>
       </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2">
         <v>22</v>
       </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2">
         <v>23</v>
       </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2">
         <v>24</v>
       </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2">
         <v>25</v>
       </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2">
         <v>26</v>
       </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2">
         <v>27</v>
       </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2">
         <v>28</v>
       </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2">
         <v>29</v>
       </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2">
         <v>30</v>
       </c>
-      <c r="B30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2">
         <v>31</v>
       </c>
-      <c r="B31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
         <v>32</v>
       </c>
-      <c r="B32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2">
         <v>33</v>
       </c>
-      <c r="B33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="2">
         <v>34</v>
       </c>
-      <c r="B34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="2">
         <v>35</v>
       </c>
-      <c r="B35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="2">
         <v>36</v>
       </c>
-      <c r="B36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="2">
         <v>37</v>
       </c>
-      <c r="B37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" s="2">
         <v>38</v>
       </c>
-      <c r="B38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="2">
         <v>39</v>
       </c>
-      <c r="B39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="2">
         <v>40</v>
       </c>
-      <c r="B40">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2">
         <v>41</v>
       </c>
-      <c r="B41">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2">
         <v>42</v>
       </c>
-      <c r="B42">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2">
         <v>43</v>
       </c>
-      <c r="B43">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2">
         <v>44</v>
       </c>
-      <c r="B44">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2">
         <v>45</v>
       </c>
-      <c r="B45">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2">
         <v>46</v>
       </c>
-      <c r="B46">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2">
         <v>47</v>
       </c>
-      <c r="B47">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2">
         <v>48</v>
       </c>
-      <c r="B48">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="2">
         <v>49</v>
       </c>
-      <c r="B49">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" s="2">
         <v>50</v>
       </c>
-      <c r="B50">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="2">
         <v>51</v>
       </c>
-      <c r="B51">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="2">
         <v>52</v>
       </c>
-      <c r="B52">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B54" s="2">
         <v>53</v>
       </c>
-      <c r="B53">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="2">
         <v>54</v>
       </c>
-      <c r="B54">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="2">
         <v>55</v>
       </c>
-      <c r="B55">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="2">
         <v>56</v>
       </c>
-      <c r="B56">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="2">
         <v>57</v>
       </c>
-      <c r="B57">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="2">
         <v>58</v>
       </c>
-      <c r="B58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="2">
         <v>59</v>
       </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="2">
         <v>60</v>
       </c>
-      <c r="B60">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2">
         <v>61</v>
       </c>
-      <c r="B61">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2">
         <v>62</v>
       </c>
-      <c r="B62">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2">
         <v>63</v>
       </c>
-      <c r="B63">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2">
         <v>64</v>
       </c>
-      <c r="B64">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2">
         <v>65</v>
       </c>
-      <c r="B65">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2">
         <v>66</v>
       </c>
-      <c r="B66">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
         <v>67</v>
       </c>
-      <c r="B67">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
         <v>68</v>
       </c>
-      <c r="B68">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
         <v>69</v>
       </c>
-      <c r="B69">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
         <v>70</v>
       </c>
-      <c r="B70">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
         <v>71</v>
       </c>
-      <c r="B71">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
         <v>72</v>
       </c>
-      <c r="B72">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
         <v>73</v>
       </c>
-      <c r="B73">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
         <v>74</v>
       </c>
-      <c r="B74">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
         <v>75</v>
       </c>
-      <c r="B75">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
         <v>76</v>
       </c>
-      <c r="B76">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
         <v>77</v>
       </c>
-      <c r="B77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
         <v>78</v>
       </c>
-      <c r="B78">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
         <v>79</v>
       </c>
-      <c r="B79">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
         <v>80</v>
       </c>
-      <c r="B80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
         <v>81</v>
       </c>
-      <c r="B81">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
         <v>82</v>
       </c>
-      <c r="B82">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
         <v>83</v>
       </c>
-      <c r="B83">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
         <v>84</v>
       </c>
-      <c r="B84">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
         <v>85</v>
       </c>
-      <c r="B85">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
         <v>86</v>
       </c>
-      <c r="B86">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
         <v>87</v>
       </c>
-      <c r="B87">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
         <v>88</v>
       </c>
-      <c r="B88">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
         <v>89</v>
       </c>
-      <c r="B89">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
         <v>90</v>
       </c>
-      <c r="B90">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
         <v>91</v>
       </c>
-      <c r="B91">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
         <v>92</v>
       </c>
-      <c r="B92">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
         <v>93</v>
       </c>
-      <c r="B93">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
         <v>94</v>
       </c>
-      <c r="B94">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
         <v>95</v>
       </c>
-      <c r="B95">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
         <v>96</v>
       </c>
-      <c r="B96">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
         <v>97</v>
       </c>
-      <c r="B97">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
         <v>98</v>
       </c>
-      <c r="B98">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>99</v>
-      </c>
-      <c r="B99">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>100</v>
-      </c>
-      <c r="B100">
+      <c r="B100" s="2">
         <v>99</v>
       </c>
     </row>
